--- a/Entregaveis/1.RepositorioSemantico/Medicamentos/OBM-EDQM-Validacao/EDQM-Pharmaceutical Dose Form-OBM.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Medicamentos/OBM-EDQM-Validacao/EDQM-Pharmaceutical Dose Form-OBM.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Medicamentos/OBM-EDQM-Validacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aline\Documents\GitHub\ips-brasil-documentos\Entregaveis\1.RepositorioSemantico\Medicamentos\OBM-EDQM-Validacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAFD4B33-7CDC-644E-BE62-A930EE4903A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{A9E20085-1FBD-40FD-A2F4-A4A4CF65BE40}"/>
+    <workbookView xWindow="0" yWindow="756" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Pharmaceutical Dose Form" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="862">
   <si>
     <t>Code</t>
   </si>
@@ -2596,12 +2595,27 @@
   </si>
   <si>
     <t>Tradução para Inglês correta? (S/N)</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>Não aparece a palavra "oral"</t>
+  </si>
+  <si>
+    <t>Só como stick</t>
+  </si>
+  <si>
+    <t>Só como paste</t>
+  </si>
+  <si>
+    <t>Não aparece a palavra "oral", e sim droug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2993,23 +3007,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1CBE99-273D-452D-983C-C18943727F2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E428"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E427"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="41.83203125" customWidth="1"/>
+    <col min="5" max="5" width="41.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3026,7 +3040,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="53.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10100500</v>
       </c>
@@ -3039,7 +3053,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10101000</v>
       </c>
@@ -3052,7 +3066,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10102000</v>
       </c>
@@ -3065,7 +3079,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10103000</v>
       </c>
@@ -3078,7 +3092,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10104000</v>
       </c>
@@ -3091,7 +3105,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10105000</v>
       </c>
@@ -3101,10 +3115,14 @@
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="D7" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10106000</v>
       </c>
@@ -3114,10 +3132,14 @@
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="D8" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10107000</v>
       </c>
@@ -3127,10 +3149,12 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>857</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10108000</v>
       </c>
@@ -3143,7 +3167,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10109000</v>
       </c>
@@ -3153,10 +3177,14 @@
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="D11" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10110000</v>
       </c>
@@ -3166,10 +3194,14 @@
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="D12" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10111000</v>
       </c>
@@ -3179,10 +3211,14 @@
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="D13" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10112000</v>
       </c>
@@ -3192,10 +3228,14 @@
       <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="D14" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>10113000</v>
       </c>
@@ -3205,10 +3245,14 @@
       <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="D15" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>10117000</v>
       </c>
@@ -3221,7 +3265,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>10118000</v>
       </c>
@@ -3234,7 +3278,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>10119000</v>
       </c>
@@ -3247,7 +3291,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>10120000</v>
       </c>
@@ -3260,7 +3304,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>10121000</v>
       </c>
@@ -3273,7 +3317,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>10121500</v>
       </c>
@@ -3286,7 +3330,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>10122000</v>
       </c>
@@ -3299,7 +3343,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>10201000</v>
       </c>
@@ -3312,7 +3356,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>10202000</v>
       </c>
@@ -3325,7 +3369,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>10203000</v>
       </c>
@@ -3338,7 +3382,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="108" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>10204000</v>
       </c>
@@ -3351,7 +3395,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>10205000</v>
       </c>
@@ -3364,7 +3408,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>10206000</v>
       </c>
@@ -3377,7 +3421,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>10207000</v>
       </c>
@@ -3390,7 +3434,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="108" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>10208000</v>
       </c>
@@ -3403,7 +3447,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>10209000</v>
       </c>
@@ -3416,7 +3460,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="81" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>10210000</v>
       </c>
@@ -3429,7 +3473,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="81" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>10211000</v>
       </c>
@@ -3442,7 +3486,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="81" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>10212000</v>
       </c>
@@ -3455,7 +3499,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>10213000</v>
       </c>
@@ -3468,7 +3512,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>10214000</v>
       </c>
@@ -3481,7 +3525,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>10215000</v>
       </c>
@@ -3494,7 +3538,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>10216000</v>
       </c>
@@ -3507,7 +3551,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="108" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>10217000</v>
       </c>
@@ -3520,7 +3564,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="108" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>10218000</v>
       </c>
@@ -3533,7 +3577,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" ht="108" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="108" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>10219000</v>
       </c>
@@ -3546,7 +3590,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="108" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>10220000</v>
       </c>
@@ -3559,7 +3603,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>10221000</v>
       </c>
@@ -3572,7 +3616,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>10222000</v>
       </c>
@@ -3585,7 +3629,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>10223000</v>
       </c>
@@ -3598,7 +3642,7 @@
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>10224000</v>
       </c>
@@ -3611,7 +3655,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>10225000</v>
       </c>
@@ -3624,7 +3668,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>10226000</v>
       </c>
@@ -3637,7 +3681,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="108" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>10227000</v>
       </c>
@@ -3650,7 +3694,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>10228000</v>
       </c>
@@ -3660,10 +3704,14 @@
       <c r="C50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="D50" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>10229000</v>
       </c>
@@ -3676,7 +3724,7 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>10230000</v>
       </c>
@@ -3689,7 +3737,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>10231000</v>
       </c>
@@ -3702,7 +3750,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>10236100</v>
       </c>
@@ -3715,7 +3763,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>10301000</v>
       </c>
@@ -3728,7 +3776,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>10302000</v>
       </c>
@@ -3741,7 +3789,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>10303000</v>
       </c>
@@ -3754,7 +3802,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>10304000</v>
       </c>
@@ -3767,7 +3815,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>10305000</v>
       </c>
@@ -3780,7 +3828,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>10306000</v>
       </c>
@@ -3793,7 +3841,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>10307000</v>
       </c>
@@ -3806,7 +3854,7 @@
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>10308100</v>
       </c>
@@ -3819,7 +3867,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>10308200</v>
       </c>
@@ -3832,7 +3880,7 @@
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>10308300</v>
       </c>
@@ -3845,7 +3893,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>10309100</v>
       </c>
@@ -3858,7 +3906,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>10309200</v>
       </c>
@@ -3871,7 +3919,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>10309300</v>
       </c>
@@ -3884,7 +3932,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>10310000</v>
       </c>
@@ -3894,10 +3942,14 @@
       <c r="C68" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="D68" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>10311000</v>
       </c>
@@ -3910,7 +3962,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>10312000</v>
       </c>
@@ -3923,7 +3975,7 @@
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>10313000</v>
       </c>
@@ -3936,7 +3988,7 @@
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>10314000</v>
       </c>
@@ -3949,7 +4001,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>10314005</v>
       </c>
@@ -3962,7 +4014,7 @@
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>10314010</v>
       </c>
@@ -3975,7 +4027,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>10314011</v>
       </c>
@@ -3988,7 +4040,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>10315000</v>
       </c>
@@ -4001,7 +4053,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>10316000</v>
       </c>
@@ -4014,7 +4066,7 @@
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>10317000</v>
       </c>
@@ -4027,7 +4079,7 @@
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>10317500</v>
       </c>
@@ -4040,7 +4092,7 @@
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>10318000</v>
       </c>
@@ -4053,7 +4105,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="81" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>10319000</v>
       </c>
@@ -4066,7 +4118,7 @@
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>10320000</v>
       </c>
@@ -4079,7 +4131,7 @@
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>10321000</v>
       </c>
@@ -4092,7 +4144,7 @@
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>10322000</v>
       </c>
@@ -4105,7 +4157,7 @@
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>10323000</v>
       </c>
@@ -4118,7 +4170,7 @@
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>10401000</v>
       </c>
@@ -4131,7 +4183,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>10401500</v>
       </c>
@@ -4144,7 +4196,7 @@
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>10402000</v>
       </c>
@@ -4157,7 +4209,7 @@
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>10403000</v>
       </c>
@@ -4167,10 +4219,14 @@
       <c r="C89" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="D89" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>10405000</v>
       </c>
@@ -4183,7 +4239,7 @@
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>10406000</v>
       </c>
@@ -4196,7 +4252,7 @@
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>10407000</v>
       </c>
@@ -4209,7 +4265,7 @@
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>10408000</v>
       </c>
@@ -4222,7 +4278,7 @@
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>10409000</v>
       </c>
@@ -4235,7 +4291,7 @@
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>10410000</v>
       </c>
@@ -4248,7 +4304,7 @@
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>10411000</v>
       </c>
@@ -4261,7 +4317,7 @@
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>10413000</v>
       </c>
@@ -4274,7 +4330,7 @@
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>10414000</v>
       </c>
@@ -4287,7 +4343,7 @@
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>10501000</v>
       </c>
@@ -4300,7 +4356,7 @@
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>10502000</v>
       </c>
@@ -4313,7 +4369,7 @@
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>10503000</v>
       </c>
@@ -4326,7 +4382,7 @@
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>10504000</v>
       </c>
@@ -4339,7 +4395,7 @@
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
     </row>
-    <row r="103" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>10505000</v>
       </c>
@@ -4352,7 +4408,7 @@
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
     </row>
-    <row r="104" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="90" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>10506000</v>
       </c>
@@ -4365,7 +4421,7 @@
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
     </row>
-    <row r="105" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>10507000</v>
       </c>
@@ -4378,7 +4434,7 @@
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>10508000</v>
       </c>
@@ -4391,7 +4447,7 @@
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>10509000</v>
       </c>
@@ -4404,7 +4460,7 @@
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>10510000</v>
       </c>
@@ -4417,7 +4473,7 @@
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>10511000</v>
       </c>
@@ -4430,7 +4486,7 @@
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>10512000</v>
       </c>
@@ -4443,7 +4499,7 @@
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>10513000</v>
       </c>
@@ -4456,7 +4512,7 @@
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>10514000</v>
       </c>
@@ -4469,7 +4525,7 @@
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>10514500</v>
       </c>
@@ -4482,7 +4538,7 @@
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>10515000</v>
       </c>
@@ -4495,7 +4551,7 @@
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>10516000</v>
       </c>
@@ -4508,7 +4564,7 @@
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>10517000</v>
       </c>
@@ -4521,7 +4577,7 @@
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>10517500</v>
       </c>
@@ -4534,7 +4590,7 @@
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>10518000</v>
       </c>
@@ -4547,7 +4603,7 @@
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>10518500</v>
       </c>
@@ -4560,7 +4616,7 @@
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="1:5" ht="228" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>10519000</v>
       </c>
@@ -4573,7 +4629,7 @@
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>10520000</v>
       </c>
@@ -4586,7 +4642,7 @@
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>10521000</v>
       </c>
@@ -4599,7 +4655,7 @@
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>10522000</v>
       </c>
@@ -4612,7 +4668,7 @@
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>10523000</v>
       </c>
@@ -4625,7 +4681,7 @@
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>10525000</v>
       </c>
@@ -4638,7 +4694,7 @@
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>10546250</v>
       </c>
@@ -4651,7 +4707,7 @@
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>10546400</v>
       </c>
@@ -4664,7 +4720,7 @@
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>10546500</v>
       </c>
@@ -4677,7 +4733,7 @@
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>10547000</v>
       </c>
@@ -4690,7 +4746,7 @@
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>10548000</v>
       </c>
@@ -4703,7 +4759,7 @@
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>10549000</v>
       </c>
@@ -4716,7 +4772,7 @@
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>10550000</v>
       </c>
@@ -4729,7 +4785,7 @@
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>10600500</v>
       </c>
@@ -4742,7 +4798,7 @@
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>10601000</v>
       </c>
@@ -4755,7 +4811,7 @@
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>10602000</v>
       </c>
@@ -4768,7 +4824,7 @@
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" ht="81" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>10603000</v>
       </c>
@@ -4781,7 +4837,7 @@
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>10604000</v>
       </c>
@@ -4794,7 +4850,7 @@
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>10604500</v>
       </c>
@@ -4807,7 +4863,7 @@
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>10605000</v>
       </c>
@@ -4820,7 +4876,7 @@
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>10608000</v>
       </c>
@@ -4833,7 +4889,7 @@
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
     </row>
-    <row r="141" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>10609000</v>
       </c>
@@ -4846,7 +4902,7 @@
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>10610000</v>
       </c>
@@ -4859,7 +4915,7 @@
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>10611000</v>
       </c>
@@ -4872,7 +4928,7 @@
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
     </row>
-    <row r="144" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>10612000</v>
       </c>
@@ -4885,7 +4941,7 @@
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
     </row>
-    <row r="145" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>10613000</v>
       </c>
@@ -4898,7 +4954,7 @@
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
     </row>
-    <row r="146" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>10701000</v>
       </c>
@@ -4911,7 +4967,7 @@
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>10702000</v>
       </c>
@@ -4924,7 +4980,7 @@
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>10703000</v>
       </c>
@@ -4937,7 +4993,7 @@
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>10704000</v>
       </c>
@@ -4950,7 +5006,7 @@
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>10705000</v>
       </c>
@@ -4963,7 +5019,7 @@
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
     </row>
-    <row r="151" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>10706000</v>
       </c>
@@ -4976,7 +5032,7 @@
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
     </row>
-    <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>10708000</v>
       </c>
@@ -4989,7 +5045,7 @@
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>10709000</v>
       </c>
@@ -5002,7 +5058,7 @@
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>10710000</v>
       </c>
@@ -5015,7 +5071,7 @@
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
     </row>
-    <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>10711000</v>
       </c>
@@ -5028,7 +5084,7 @@
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
     </row>
-    <row r="156" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>10712000</v>
       </c>
@@ -5041,7 +5097,7 @@
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>10713000</v>
       </c>
@@ -5054,7 +5110,7 @@
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
     </row>
-    <row r="158" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>10714000</v>
       </c>
@@ -5067,7 +5123,7 @@
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
     </row>
-    <row r="159" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>10715000</v>
       </c>
@@ -5080,7 +5136,7 @@
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
     </row>
-    <row r="160" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>10801000</v>
       </c>
@@ -5093,7 +5149,7 @@
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>10802000</v>
       </c>
@@ -5106,7 +5162,7 @@
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>10803000</v>
       </c>
@@ -5119,7 +5175,7 @@
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>10804000</v>
       </c>
@@ -5132,7 +5188,7 @@
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>10805000</v>
       </c>
@@ -5145,7 +5201,7 @@
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>10806000</v>
       </c>
@@ -5158,7 +5214,7 @@
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
     </row>
-    <row r="166" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>10807000</v>
       </c>
@@ -5171,7 +5227,7 @@
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>10808000</v>
       </c>
@@ -5184,7 +5240,7 @@
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
     </row>
-    <row r="168" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>10809000</v>
       </c>
@@ -5197,7 +5253,7 @@
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>10810000</v>
       </c>
@@ -5210,7 +5266,7 @@
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>10811000</v>
       </c>
@@ -5223,7 +5279,7 @@
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>10812000</v>
       </c>
@@ -5236,7 +5292,7 @@
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>10901000</v>
       </c>
@@ -5249,7 +5305,7 @@
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>10902000</v>
       </c>
@@ -5262,7 +5318,7 @@
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>10903000</v>
       </c>
@@ -5275,7 +5331,7 @@
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>10904000</v>
       </c>
@@ -5288,7 +5344,7 @@
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>10905000</v>
       </c>
@@ -5301,7 +5357,7 @@
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>10906000</v>
       </c>
@@ -5314,7 +5370,7 @@
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
     </row>
-    <row r="178" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>10907000</v>
       </c>
@@ -5327,7 +5383,7 @@
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>10908000</v>
       </c>
@@ -5340,7 +5396,7 @@
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>10909000</v>
       </c>
@@ -5353,7 +5409,7 @@
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>10910000</v>
       </c>
@@ -5366,7 +5422,7 @@
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>10911000</v>
       </c>
@@ -5379,7 +5435,7 @@
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>10912000</v>
       </c>
@@ -5392,7 +5448,7 @@
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>10913000</v>
       </c>
@@ -5405,7 +5461,7 @@
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>10914000</v>
       </c>
@@ -5418,7 +5474,7 @@
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>10915000</v>
       </c>
@@ -5431,7 +5487,7 @@
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>11001000</v>
       </c>
@@ -5444,7 +5500,7 @@
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>11002000</v>
       </c>
@@ -5457,7 +5513,7 @@
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>11003000</v>
       </c>
@@ -5470,7 +5526,7 @@
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>11004000</v>
       </c>
@@ -5483,7 +5539,7 @@
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>11005000</v>
       </c>
@@ -5496,7 +5552,7 @@
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>11006000</v>
       </c>
@@ -5509,7 +5565,7 @@
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>11007000</v>
       </c>
@@ -5522,7 +5578,7 @@
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>11008000</v>
       </c>
@@ -5535,7 +5591,7 @@
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>11009000</v>
       </c>
@@ -5548,7 +5604,7 @@
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>11010000</v>
       </c>
@@ -5561,7 +5617,7 @@
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>11011000</v>
       </c>
@@ -5574,7 +5630,7 @@
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>11012000</v>
       </c>
@@ -5587,7 +5643,7 @@
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>11013000</v>
       </c>
@@ -5600,7 +5656,7 @@
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>11014000</v>
       </c>
@@ -5613,7 +5669,7 @@
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>11015000</v>
       </c>
@@ -5626,7 +5682,7 @@
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
     </row>
-    <row r="202" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>11101000</v>
       </c>
@@ -5639,7 +5695,7 @@
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>11102000</v>
       </c>
@@ -5652,7 +5708,7 @@
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>11103000</v>
       </c>
@@ -5665,7 +5721,7 @@
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>11104000</v>
       </c>
@@ -5678,7 +5734,7 @@
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>11105000</v>
       </c>
@@ -5691,7 +5747,7 @@
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
     </row>
-    <row r="207" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>11106000</v>
       </c>
@@ -5704,7 +5760,7 @@
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>11107000</v>
       </c>
@@ -5717,7 +5773,7 @@
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
     </row>
-    <row r="209" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>11108000</v>
       </c>
@@ -5730,7 +5786,7 @@
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>11109000</v>
       </c>
@@ -5743,7 +5799,7 @@
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>11110000</v>
       </c>
@@ -5756,7 +5812,7 @@
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>11111000</v>
       </c>
@@ -5769,7 +5825,7 @@
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>11112000</v>
       </c>
@@ -5782,7 +5838,7 @@
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>11113000</v>
       </c>
@@ -5795,7 +5851,7 @@
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>11114000</v>
       </c>
@@ -5808,7 +5864,7 @@
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>11115000</v>
       </c>
@@ -5821,7 +5877,7 @@
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>11116000</v>
       </c>
@@ -5834,7 +5890,7 @@
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>11117000</v>
       </c>
@@ -5847,7 +5903,7 @@
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
     </row>
-    <row r="219" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>11201000</v>
       </c>
@@ -5860,7 +5916,7 @@
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>11202000</v>
       </c>
@@ -5873,7 +5929,7 @@
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>11203000</v>
       </c>
@@ -5886,7 +5942,7 @@
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>11204000</v>
       </c>
@@ -5899,7 +5955,7 @@
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>11205000</v>
       </c>
@@ -5912,7 +5968,7 @@
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
     </row>
-    <row r="224" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>11206000</v>
       </c>
@@ -5925,7 +5981,7 @@
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
     </row>
-    <row r="225" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>11208400</v>
       </c>
@@ -5938,7 +5994,7 @@
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
     </row>
-    <row r="226" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>11208500</v>
       </c>
@@ -5951,7 +6007,7 @@
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
     </row>
-    <row r="227" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>11209000</v>
       </c>
@@ -5964,7 +6020,7 @@
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
     </row>
-    <row r="228" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>11209500</v>
       </c>
@@ -5977,7 +6033,7 @@
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
     </row>
-    <row r="229" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>11210000</v>
       </c>
@@ -5990,7 +6046,7 @@
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
     </row>
-    <row r="230" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>11211000</v>
       </c>
@@ -6003,7 +6059,7 @@
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>11211500</v>
       </c>
@@ -6016,7 +6072,7 @@
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>11212000</v>
       </c>
@@ -6029,7 +6085,7 @@
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
     </row>
-    <row r="233" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>11213000</v>
       </c>
@@ -6042,7 +6098,7 @@
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>11216000</v>
       </c>
@@ -6055,7 +6111,7 @@
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
     </row>
-    <row r="235" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" ht="81" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>11301000</v>
       </c>
@@ -6068,7 +6124,7 @@
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
     </row>
-    <row r="236" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>11302000</v>
       </c>
@@ -6081,7 +6137,7 @@
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
     </row>
-    <row r="237" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>11303000</v>
       </c>
@@ -6094,7 +6150,7 @@
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
     </row>
-    <row r="238" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" ht="135" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>11303300</v>
       </c>
@@ -6107,7 +6163,7 @@
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
     </row>
-    <row r="239" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>11303500</v>
       </c>
@@ -6120,7 +6176,7 @@
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
     </row>
-    <row r="240" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>11401000</v>
       </c>
@@ -6133,7 +6189,7 @@
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
     </row>
-    <row r="241" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>11402000</v>
       </c>
@@ -6146,7 +6202,7 @@
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
     </row>
-    <row r="242" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>11403000</v>
       </c>
@@ -6159,7 +6215,7 @@
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
     </row>
-    <row r="243" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>11404000</v>
       </c>
@@ -6172,7 +6228,7 @@
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
     </row>
-    <row r="244" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>11405000</v>
       </c>
@@ -6185,7 +6241,7 @@
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
     </row>
-    <row r="245" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>11502000</v>
       </c>
@@ -6198,7 +6254,7 @@
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
     </row>
-    <row r="246" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>11502500</v>
       </c>
@@ -6211,7 +6267,7 @@
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
     </row>
-    <row r="247" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>11503000</v>
       </c>
@@ -6224,7 +6280,7 @@
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
     </row>
-    <row r="248" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>11504000</v>
       </c>
@@ -6237,7 +6293,7 @@
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
     </row>
-    <row r="249" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>11505000</v>
       </c>
@@ -6250,7 +6306,7 @@
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
     </row>
-    <row r="250" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>11601000</v>
       </c>
@@ -6263,7 +6319,7 @@
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
     </row>
-    <row r="251" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>11602000</v>
       </c>
@@ -6276,7 +6332,7 @@
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
     </row>
-    <row r="252" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>11603000</v>
       </c>
@@ -6289,7 +6345,7 @@
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
     </row>
-    <row r="253" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>11701000</v>
       </c>
@@ -6302,7 +6358,7 @@
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
     </row>
-    <row r="254" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>11901000</v>
       </c>
@@ -6315,7 +6371,7 @@
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
     </row>
-    <row r="255" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>12101000</v>
       </c>
@@ -6328,7 +6384,7 @@
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
     </row>
-    <row r="256" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>12102000</v>
       </c>
@@ -6341,7 +6397,7 @@
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
     </row>
-    <row r="257" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>12103000</v>
       </c>
@@ -6354,7 +6410,7 @@
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
     </row>
-    <row r="258" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>12104000</v>
       </c>
@@ -6367,7 +6423,7 @@
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
     </row>
-    <row r="259" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>12105000</v>
       </c>
@@ -6380,7 +6436,7 @@
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
     </row>
-    <row r="260" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>12106000</v>
       </c>
@@ -6393,7 +6449,7 @@
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
     </row>
-    <row r="261" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>12107000</v>
       </c>
@@ -6406,7 +6462,7 @@
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
     </row>
-    <row r="262" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>12108000</v>
       </c>
@@ -6419,7 +6475,7 @@
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
     </row>
-    <row r="263" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>12110000</v>
       </c>
@@ -6432,7 +6488,7 @@
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
     </row>
-    <row r="264" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>12111000</v>
       </c>
@@ -6445,7 +6501,7 @@
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
     </row>
-    <row r="265" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>12111500</v>
       </c>
@@ -6458,7 +6514,7 @@
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
     </row>
-    <row r="266" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>12112000</v>
       </c>
@@ -6471,7 +6527,7 @@
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
     </row>
-    <row r="267" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>12113000</v>
       </c>
@@ -6484,7 +6540,7 @@
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
     </row>
-    <row r="268" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>12114000</v>
       </c>
@@ -6497,7 +6553,7 @@
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
     </row>
-    <row r="269" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>12115000</v>
       </c>
@@ -6510,7 +6566,7 @@
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
     </row>
-    <row r="270" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>12115100</v>
       </c>
@@ -6523,7 +6579,7 @@
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
     </row>
-    <row r="271" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>12115200</v>
       </c>
@@ -6536,7 +6592,7 @@
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
     </row>
-    <row r="272" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>12117000</v>
       </c>
@@ -6549,7 +6605,7 @@
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
     </row>
-    <row r="273" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>12117500</v>
       </c>
@@ -6562,7 +6618,7 @@
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
     </row>
-    <row r="274" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>12118000</v>
       </c>
@@ -6575,7 +6631,7 @@
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
     </row>
-    <row r="275" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>12119000</v>
       </c>
@@ -6588,7 +6644,7 @@
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
     </row>
-    <row r="276" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>12120000</v>
       </c>
@@ -6601,7 +6657,7 @@
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
     </row>
-    <row r="277" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>12130000</v>
       </c>
@@ -6614,7 +6670,7 @@
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
     </row>
-    <row r="278" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>12131000</v>
       </c>
@@ -6627,7 +6683,7 @@
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
     </row>
-    <row r="279" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>12301000</v>
       </c>
@@ -6640,7 +6696,7 @@
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
     </row>
-    <row r="280" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>12302000</v>
       </c>
@@ -6653,7 +6709,7 @@
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
     </row>
-    <row r="281" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>12303000</v>
       </c>
@@ -6666,7 +6722,7 @@
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
     </row>
-    <row r="282" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>13001000</v>
       </c>
@@ -6679,7 +6735,7 @@
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
     </row>
-    <row r="283" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>13002000</v>
       </c>
@@ -6692,7 +6748,7 @@
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
     </row>
-    <row r="284" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>13003000</v>
       </c>
@@ -6705,7 +6761,7 @@
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
     </row>
-    <row r="285" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>13004000</v>
       </c>
@@ -6718,7 +6774,7 @@
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
     </row>
-    <row r="286" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>13005000</v>
       </c>
@@ -6731,7 +6787,7 @@
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
     </row>
-    <row r="287" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>13006000</v>
       </c>
@@ -6744,7 +6800,7 @@
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
     </row>
-    <row r="288" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>13007000</v>
       </c>
@@ -6757,7 +6813,7 @@
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
     </row>
-    <row r="289" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>13008000</v>
       </c>
@@ -6770,7 +6826,7 @@
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
     </row>
-    <row r="290" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>13009000</v>
       </c>
@@ -6783,7 +6839,7 @@
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
     </row>
-    <row r="291" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>13010000</v>
       </c>
@@ -6796,7 +6852,7 @@
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
     </row>
-    <row r="292" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>13011000</v>
       </c>
@@ -6809,7 +6865,7 @@
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
     </row>
-    <row r="293" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>13012000</v>
       </c>
@@ -6822,7 +6878,7 @@
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
     </row>
-    <row r="294" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>13013000</v>
       </c>
@@ -6835,7 +6891,7 @@
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
     </row>
-    <row r="295" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>13014000</v>
       </c>
@@ -6848,7 +6904,7 @@
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
     </row>
-    <row r="296" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>13015000</v>
       </c>
@@ -6861,7 +6917,7 @@
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
     </row>
-    <row r="297" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>13016000</v>
       </c>
@@ -6874,7 +6930,7 @@
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
     </row>
-    <row r="298" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>13017000</v>
       </c>
@@ -6887,7 +6943,7 @@
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
     </row>
-    <row r="299" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>13018000</v>
       </c>
@@ -6900,7 +6956,7 @@
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
     </row>
-    <row r="300" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>13020000</v>
       </c>
@@ -6913,7 +6969,7 @@
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
     </row>
-    <row r="301" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>13021000</v>
       </c>
@@ -6926,7 +6982,7 @@
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
     </row>
-    <row r="302" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>13022000</v>
       </c>
@@ -6939,7 +6995,7 @@
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
     </row>
-    <row r="303" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>13023000</v>
       </c>
@@ -6952,7 +7008,7 @@
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
     </row>
-    <row r="304" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>13024000</v>
       </c>
@@ -6965,7 +7021,7 @@
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
     </row>
-    <row r="305" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>13025000</v>
       </c>
@@ -6978,7 +7034,7 @@
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
     </row>
-    <row r="306" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>13026000</v>
       </c>
@@ -6991,7 +7047,7 @@
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
     </row>
-    <row r="307" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>13027000</v>
       </c>
@@ -7004,7 +7060,7 @@
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
     </row>
-    <row r="308" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>13028000</v>
       </c>
@@ -7017,7 +7073,7 @@
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
     </row>
-    <row r="309" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>13029000</v>
       </c>
@@ -7030,7 +7086,7 @@
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
     </row>
-    <row r="310" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>13031000</v>
       </c>
@@ -7043,7 +7099,7 @@
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
     </row>
-    <row r="311" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>13032000</v>
       </c>
@@ -7056,7 +7112,7 @@
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
     </row>
-    <row r="312" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>13033000</v>
       </c>
@@ -7069,7 +7125,7 @@
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
     </row>
-    <row r="313" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>13035000</v>
       </c>
@@ -7082,7 +7138,7 @@
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
     </row>
-    <row r="314" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>13036000</v>
       </c>
@@ -7095,7 +7151,7 @@
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
     </row>
-    <row r="315" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>13037000</v>
       </c>
@@ -7108,7 +7164,7 @@
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
     </row>
-    <row r="316" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>13039000</v>
       </c>
@@ -7121,7 +7177,7 @@
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
     </row>
-    <row r="317" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>13040000</v>
       </c>
@@ -7134,7 +7190,7 @@
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
     </row>
-    <row r="318" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>13041000</v>
       </c>
@@ -7147,7 +7203,7 @@
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
     </row>
-    <row r="319" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>13042000</v>
       </c>
@@ -7160,7 +7216,7 @@
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
     </row>
-    <row r="320" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>13043000</v>
       </c>
@@ -7173,7 +7229,7 @@
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
     </row>
-    <row r="321" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>13044000</v>
       </c>
@@ -7186,7 +7242,7 @@
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
     </row>
-    <row r="322" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>13045000</v>
       </c>
@@ -7199,7 +7255,7 @@
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
     </row>
-    <row r="323" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" ht="81" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>13046000</v>
       </c>
@@ -7212,7 +7268,7 @@
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
     </row>
-    <row r="324" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>13047000</v>
       </c>
@@ -7225,7 +7281,7 @@
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
     </row>
-    <row r="325" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>13048000</v>
       </c>
@@ -7238,7 +7294,7 @@
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>13049000</v>
       </c>
@@ -7251,7 +7307,7 @@
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
     </row>
-    <row r="327" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>13050000</v>
       </c>
@@ -7264,7 +7320,7 @@
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
     </row>
-    <row r="328" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>13051000</v>
       </c>
@@ -7277,7 +7333,7 @@
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
     </row>
-    <row r="329" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>13052000</v>
       </c>
@@ -7290,7 +7346,7 @@
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
     </row>
-    <row r="330" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>13061000</v>
       </c>
@@ -7303,7 +7359,7 @@
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
     </row>
-    <row r="331" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>13066000</v>
       </c>
@@ -7316,7 +7372,7 @@
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
     </row>
-    <row r="332" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>13076000</v>
       </c>
@@ -7329,7 +7385,7 @@
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
     </row>
-    <row r="333" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>13077000</v>
       </c>
@@ -7342,7 +7398,7 @@
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
     </row>
-    <row r="334" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>13091000</v>
       </c>
@@ -7355,7 +7411,7 @@
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
     </row>
-    <row r="335" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>13102000</v>
       </c>
@@ -7368,7 +7424,7 @@
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
     </row>
-    <row r="336" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>13105000</v>
       </c>
@@ -7381,7 +7437,7 @@
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
     </row>
-    <row r="337" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>13106000</v>
       </c>
@@ -7394,7 +7450,7 @@
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
     </row>
-    <row r="338" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>13107000</v>
       </c>
@@ -7407,7 +7463,7 @@
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
     </row>
-    <row r="339" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>50001000</v>
       </c>
@@ -7420,7 +7476,7 @@
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
     </row>
-    <row r="340" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>50009000</v>
       </c>
@@ -7433,7 +7489,7 @@
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
     </row>
-    <row r="341" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>50009300</v>
       </c>
@@ -7446,7 +7502,7 @@
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
     </row>
-    <row r="342" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>50009500</v>
       </c>
@@ -7459,7 +7515,7 @@
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
     </row>
-    <row r="343" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>50009750</v>
       </c>
@@ -7472,7 +7528,7 @@
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
     </row>
-    <row r="344" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>50010000</v>
       </c>
@@ -7485,7 +7541,7 @@
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
     </row>
-    <row r="345" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>50011000</v>
       </c>
@@ -7498,7 +7554,7 @@
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
     </row>
-    <row r="346" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>50013250</v>
       </c>
@@ -7511,7 +7567,7 @@
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
     </row>
-    <row r="347" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>50015200</v>
       </c>
@@ -7524,7 +7580,7 @@
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
     </row>
-    <row r="348" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>50015450</v>
       </c>
@@ -7537,7 +7593,7 @@
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
     </row>
-    <row r="349" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>50015500</v>
       </c>
@@ -7550,7 +7606,7 @@
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
     </row>
-    <row r="350" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>50016000</v>
       </c>
@@ -7563,7 +7619,7 @@
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
     </row>
-    <row r="351" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>50017000</v>
       </c>
@@ -7576,7 +7632,7 @@
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
     </row>
-    <row r="352" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>50017500</v>
       </c>
@@ -7589,7 +7645,7 @@
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
     </row>
-    <row r="353" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>50018000</v>
       </c>
@@ -7602,7 +7658,7 @@
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
     </row>
-    <row r="354" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>50018500</v>
       </c>
@@ -7615,7 +7671,7 @@
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
     </row>
-    <row r="355" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>50019000</v>
       </c>
@@ -7628,7 +7684,7 @@
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
     </row>
-    <row r="356" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>50019500</v>
       </c>
@@ -7641,7 +7697,7 @@
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
     </row>
-    <row r="357" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>50020200</v>
       </c>
@@ -7654,7 +7710,7 @@
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
     </row>
-    <row r="358" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>50021000</v>
       </c>
@@ -7667,7 +7723,7 @@
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
     </row>
-    <row r="359" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>50022000</v>
       </c>
@@ -7680,7 +7736,7 @@
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
     </row>
-    <row r="360" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>50024000</v>
       </c>
@@ -7693,7 +7749,7 @@
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
     </row>
-    <row r="361" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>50024500</v>
       </c>
@@ -7706,7 +7762,7 @@
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
     </row>
-    <row r="362" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>50026000</v>
       </c>
@@ -7719,7 +7775,7 @@
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
     </row>
-    <row r="363" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>50029150</v>
       </c>
@@ -7732,7 +7788,7 @@
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
     </row>
-    <row r="364" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>50029500</v>
       </c>
@@ -7745,7 +7801,7 @@
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
     </row>
-    <row r="365" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>50030000</v>
       </c>
@@ -7758,7 +7814,7 @@
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
     </row>
-    <row r="366" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>50031000</v>
       </c>
@@ -7771,7 +7827,7 @@
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
     </row>
-    <row r="367" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>50032000</v>
       </c>
@@ -7784,7 +7840,7 @@
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
     </row>
-    <row r="368" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>50033000</v>
       </c>
@@ -7797,7 +7853,7 @@
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
     </row>
-    <row r="369" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>50033100</v>
       </c>
@@ -7810,7 +7866,7 @@
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
     </row>
-    <row r="370" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>50033400</v>
       </c>
@@ -7823,7 +7879,7 @@
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
     </row>
-    <row r="371" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>50036000</v>
       </c>
@@ -7836,7 +7892,7 @@
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
     </row>
-    <row r="372" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>50036050</v>
       </c>
@@ -7849,7 +7905,7 @@
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
     </row>
-    <row r="373" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>50036500</v>
       </c>
@@ -7862,7 +7918,7 @@
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
     </row>
-    <row r="374" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>50036700</v>
       </c>
@@ -7875,7 +7931,7 @@
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
     </row>
-    <row r="375" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>50037100</v>
       </c>
@@ -7888,7 +7944,7 @@
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
     </row>
-    <row r="376" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>50037400</v>
       </c>
@@ -7901,7 +7957,7 @@
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
     </row>
-    <row r="377" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>50037500</v>
       </c>
@@ -7914,7 +7970,7 @@
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
     </row>
-    <row r="378" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>50037750</v>
       </c>
@@ -7927,7 +7983,7 @@
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
     </row>
-    <row r="379" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>50037900</v>
       </c>
@@ -7940,7 +7996,7 @@
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
     </row>
-    <row r="380" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>50038000</v>
       </c>
@@ -7953,7 +8009,7 @@
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
     </row>
-    <row r="381" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>50038500</v>
       </c>
@@ -7966,7 +8022,7 @@
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
     </row>
-    <row r="382" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>50039000</v>
       </c>
@@ -7979,7 +8035,7 @@
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
     </row>
-    <row r="383" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>50039500</v>
       </c>
@@ -7992,7 +8048,7 @@
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
     </row>
-    <row r="384" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>50040500</v>
       </c>
@@ -8005,7 +8061,7 @@
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
     </row>
-    <row r="385" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>50043000</v>
       </c>
@@ -8018,7 +8074,7 @@
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
     </row>
-    <row r="386" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>50048750</v>
       </c>
@@ -8031,7 +8087,7 @@
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
     </row>
-    <row r="387" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>50049100</v>
       </c>
@@ -8044,7 +8100,7 @@
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
     </row>
-    <row r="388" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>50049200</v>
       </c>
@@ -8057,7 +8113,7 @@
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
     </row>
-    <row r="389" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>50049250</v>
       </c>
@@ -8070,7 +8126,7 @@
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
     </row>
-    <row r="390" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>50049270</v>
       </c>
@@ -8083,7 +8139,7 @@
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
     </row>
-    <row r="391" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>50049300</v>
       </c>
@@ -8096,7 +8152,7 @@
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
     </row>
-    <row r="392" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>50049500</v>
       </c>
@@ -8109,7 +8165,7 @@
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
     </row>
-    <row r="393" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>50050000</v>
       </c>
@@ -8122,7 +8178,7 @@
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
     </row>
-    <row r="394" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>50050500</v>
       </c>
@@ -8135,7 +8191,7 @@
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
     </row>
-    <row r="395" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>50051000</v>
       </c>
@@ -8148,7 +8204,7 @@
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
     </row>
-    <row r="396" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>50052000</v>
       </c>
@@ -8161,7 +8217,7 @@
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
     </row>
-    <row r="397" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>50053500</v>
       </c>
@@ -8174,7 +8230,7 @@
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
     </row>
-    <row r="398" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>50056000</v>
       </c>
@@ -8187,7 +8243,7 @@
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
     </row>
-    <row r="399" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>50056500</v>
       </c>
@@ -8200,7 +8256,7 @@
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
     </row>
-    <row r="400" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>50057000</v>
       </c>
@@ -8213,7 +8269,7 @@
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
     </row>
-    <row r="401" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>50060000</v>
       </c>
@@ -8226,7 +8282,7 @@
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
     </row>
-    <row r="402" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>50061500</v>
       </c>
@@ -8239,7 +8295,7 @@
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
     </row>
-    <row r="403" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>50073000</v>
       </c>
@@ -8252,7 +8308,7 @@
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
     </row>
-    <row r="404" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>50073500</v>
       </c>
@@ -8265,7 +8321,7 @@
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
     </row>
-    <row r="405" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>50074000</v>
       </c>
@@ -8278,7 +8334,7 @@
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
     </row>
-    <row r="406" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>50076000</v>
       </c>
@@ -8291,7 +8347,7 @@
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
     </row>
-    <row r="407" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>50077000</v>
       </c>
@@ -8304,7 +8360,7 @@
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
     </row>
-    <row r="408" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>50079000</v>
       </c>
@@ -8317,7 +8373,7 @@
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
     </row>
-    <row r="409" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>50081000</v>
       </c>
@@ -8330,7 +8386,7 @@
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
     </row>
-    <row r="410" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>50082000</v>
       </c>
@@ -8343,7 +8399,7 @@
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
     </row>
-    <row r="411" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>13111000</v>
       </c>
@@ -8356,7 +8412,7 @@
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
     </row>
-    <row r="412" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>13113000</v>
       </c>
@@ -8369,7 +8425,7 @@
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
     </row>
-    <row r="413" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" ht="90" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>13115000</v>
       </c>
@@ -8382,7 +8438,7 @@
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
     </row>
-    <row r="414" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" ht="63" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>13118000</v>
       </c>
@@ -8395,7 +8451,7 @@
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
     </row>
-    <row r="415" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>13123000</v>
       </c>
@@ -8408,7 +8464,7 @@
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
     </row>
-    <row r="416" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" ht="81" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>13124000</v>
       </c>
@@ -8421,7 +8477,7 @@
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
     </row>
-    <row r="417" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>13126000</v>
       </c>
@@ -8434,7 +8490,7 @@
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
     </row>
-    <row r="418" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>13127000</v>
       </c>
@@ -8447,7 +8503,7 @@
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
     </row>
-    <row r="419" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>13128000</v>
       </c>
@@ -8460,7 +8516,7 @@
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
     </row>
-    <row r="420" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>13129000</v>
       </c>
@@ -8473,7 +8529,7 @@
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
     </row>
-    <row r="421" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>13133000</v>
       </c>
@@ -8486,7 +8542,7 @@
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
     </row>
-    <row r="422" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" ht="81" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>13134000</v>
       </c>
@@ -8499,7 +8555,7 @@
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
     </row>
-    <row r="423" spans="1:5" ht="132" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" ht="126" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>13135000</v>
       </c>
@@ -8512,7 +8568,7 @@
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
     </row>
-    <row r="424" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" ht="36" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>13136000</v>
       </c>
@@ -8525,7 +8581,7 @@
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
     </row>
-    <row r="425" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>13139000</v>
       </c>
@@ -8538,7 +8594,7 @@
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
     </row>
-    <row r="426" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>13140000</v>
       </c>
@@ -8551,7 +8607,7 @@
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
     </row>
-    <row r="427" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>13141000</v>
       </c>
@@ -8564,7 +8620,7 @@
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
